--- a/spreadmatrix.xlsx
+++ b/spreadmatrix.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Contract</t>
   </si>
@@ -54,6 +54,27 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>CME/NG</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>CME/SM</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -69,6 +90,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -158,10 +180,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:H5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -271,6 +293,110 @@
       </c>
       <c r="H4" s="0" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>36844</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>36856</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>36630</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>36644</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>36630</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>36668</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>36630</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>36690</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
